--- a/vtu_structured_results.xlsx
+++ b/vtu_structured_results.xlsx
@@ -481,63 +481,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1AY23IS048</t>
+          <t>1AY23IS010</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J2" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1AY23IS013</t>
+          <t>1AY23IS011</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
         <v>77</v>
       </c>
-      <c r="E3" t="n">
-        <v>73</v>
-      </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
@@ -549,35 +549,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1AY23IS049</t>
+          <t>1AY23IS012</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>97</v>
       </c>
       <c r="H4" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I4" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/vtu_structured_results.xlsx
+++ b/vtu_structured_results.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>BYOK359</t>
+          <t>BPEK359</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -474,110 +474,110 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>BPEK359</t>
+          <t>BNSK359</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1AY23IS010</t>
+          <t>1AY23IS001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
         <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H2" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1AY23IS011</t>
+          <t>1AY23IS002</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
         <v>84</v>
       </c>
       <c r="G3" t="n">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>92</v>
       </c>
       <c r="I3" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1AY23IS012</t>
+          <t>1AY23IS003</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
+        <v>84</v>
+      </c>
+      <c r="E4" t="n">
         <v>83</v>
-      </c>
-      <c r="E4" t="n">
-        <v>89</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>97</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J4" t="n">
         <v>99</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
